--- a/OPECHEMSUMM.xlsx
+++ b/OPECHEMSUMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00003887-90B3-4F73-80AF-060E071ED671}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C106323D-FD66-4DB5-8BD5-5DF0EF9D7437}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPECHEMSUMM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Compound</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>LairInflow</t>
+  </si>
+  <si>
+    <t>pKa</t>
+  </si>
+  <si>
+    <t>chemcharge</t>
+  </si>
+  <si>
+    <t>pKb</t>
+  </si>
+  <si>
+    <t>LogKow</t>
   </si>
 </sst>
 </file>
@@ -1022,21 +1034,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,49 +1074,61 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1124,49 +1151,59 @@
         <v>1488</v>
       </c>
       <c r="H2" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="1">
         <v>6.6431498466204567E-2</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
         <v>1.9060773480662983E-14</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>1.7499999999999998E-5</v>
       </c>
-      <c r="N2" s="1">
+      <c r="R2" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="O2" s="1">
+      <c r="S2" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P2" s="1">
+      <c r="T2" s="1">
         <v>12.83</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="U2" s="1">
         <v>1.62</v>
       </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
         <v>1.44</v>
       </c>
-      <c r="T2" s="1">
+      <c r="X2" s="1">
         <v>2.8908</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1189,49 +1226,59 @@
         <v>816</v>
       </c>
       <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1">
         <v>0.15483404596126607</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
         <v>1.9723618090452261E-13</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>7.3099999999999999E-4</v>
       </c>
-      <c r="N3" s="1">
+      <c r="R3" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="O3" s="1">
+      <c r="S3" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P3" s="1">
+      <c r="T3" s="1">
         <v>12.664999999999999</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="U3" s="1">
         <v>1.21</v>
       </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
         <v>1.9</v>
       </c>
-      <c r="T3" s="1">
+      <c r="X3" s="1">
         <v>3.2603</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,49 +1301,59 @@
         <v>1464</v>
       </c>
       <c r="H4" s="1">
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="I4" s="1">
+        <v>999</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
         <v>0.42812713302280347</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>1.7543859649122809E-13</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>2.02E-4</v>
       </c>
-      <c r="N4" s="1">
+      <c r="R4" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="O4" s="1">
+      <c r="S4" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P4" s="1">
+      <c r="T4" s="1">
         <v>7.18</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="U4" s="1">
         <v>2.09</v>
       </c>
-      <c r="R4" s="1">
+      <c r="V4" s="1">
         <v>0.03</v>
       </c>
-      <c r="S4" s="1">
+      <c r="W4" s="1">
         <v>0.98</v>
       </c>
-      <c r="T4" s="1">
+      <c r="X4" s="1">
         <v>1.7605999999999999</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1319,49 +1376,59 @@
         <v>1464</v>
       </c>
       <c r="H5" s="1">
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="I5" s="1">
+        <v>999</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <v>0.23955051123602947</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <v>2.4085365853658537E-13</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>9.6904040697928296E-4</v>
       </c>
-      <c r="N5" s="1">
+      <c r="R5" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="O5" s="1">
+      <c r="S5" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P5" s="1">
+      <c r="T5" s="1">
         <v>8.7040000000000006</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="U5" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
         <v>1.32</v>
       </c>
-      <c r="T5" s="1">
+      <c r="X5" s="1">
         <v>2.1833</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1384,49 +1451,59 @@
         <v>1464</v>
       </c>
       <c r="H6" s="1">
+        <v>3.7000000000000006</v>
+      </c>
+      <c r="I6" s="1">
+        <v>999</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>2.626844818330587E-2</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
         <v>1.8329466357308583E-13</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
         <v>1.13E-4</v>
       </c>
-      <c r="N6" s="1">
+      <c r="R6" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="O6" s="1">
+      <c r="S6" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P6" s="1">
+      <c r="T6" s="1">
         <v>9.93</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="U6" s="1">
         <v>2.1</v>
       </c>
-      <c r="R6" s="1">
+      <c r="V6" s="1">
         <v>0.03</v>
       </c>
-      <c r="S6" s="1">
+      <c r="W6" s="1">
         <v>1.24</v>
       </c>
-      <c r="T6" s="1">
+      <c r="X6" s="1">
         <v>2.5510000000000002</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1449,49 +1526,59 @@
         <v>10</v>
       </c>
       <c r="H7" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>999</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>0.23492054294570616</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>1.803680981595092E-12</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
         <v>2.0299999999999999E-5</v>
       </c>
-      <c r="N7" s="1">
+      <c r="R7" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="O7" s="1">
+      <c r="S7" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P7" s="1">
+      <c r="T7" s="1">
         <v>11.259</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="U7" s="1">
         <v>1.66</v>
       </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T7" s="1">
+      <c r="X7" s="1">
         <v>2.3714</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1514,49 +1601,59 @@
         <v>5016</v>
       </c>
       <c r="H8" s="1">
+        <v>5.92</v>
+      </c>
+      <c r="I8" s="1">
+        <v>999</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <v>5.0353863844170523E-5</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <v>3.2563283362005401E-16</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>6.8898315041491653E-9</v>
       </c>
-      <c r="N8" s="1">
+      <c r="R8" s="1">
         <v>3.217857142857143E-13</v>
       </c>
-      <c r="O8" s="1">
+      <c r="S8" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P8" s="1">
+      <c r="T8" s="1">
         <v>9.68</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="U8" s="1">
         <v>1.38</v>
       </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
         <v>0.27</v>
       </c>
-      <c r="T8" s="1">
+      <c r="X8" s="1">
         <v>1.9078999999999999</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1579,49 +1676,59 @@
         <v>9240</v>
       </c>
       <c r="H9" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I9" s="1">
+        <v>999</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>1.9356100158156894E-3</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <v>1.2296825531888759E-14</v>
       </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
         <v>3.2492785696461487E-7</v>
       </c>
-      <c r="N9" s="1">
+      <c r="R9" s="1">
         <v>1.4E-11</v>
       </c>
-      <c r="O9" s="1">
+      <c r="S9" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P9" s="1">
+      <c r="T9" s="1">
         <v>10.66</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="U9" s="1">
         <v>1.45</v>
       </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
         <v>0.34</v>
       </c>
-      <c r="T9" s="1">
+      <c r="X9" s="1">
         <v>2.0829</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1644,49 +1751,59 @@
         <v>16968</v>
       </c>
       <c r="H10" s="1">
+        <v>6.68</v>
+      </c>
+      <c r="I10" s="1">
+        <v>999</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>8.4593845734627509E-8</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
       <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <v>6.7861729625679348E-8</v>
       </c>
-      <c r="N10" s="1">
+      <c r="R10" s="1">
         <v>5.3571428571428574E-16</v>
       </c>
-      <c r="O10" s="1">
+      <c r="S10" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P10" s="1">
+      <c r="T10" s="1">
         <v>11.48</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="U10" s="1">
         <v>1.48</v>
       </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
         <v>0.41</v>
       </c>
-      <c r="T10" s="1">
+      <c r="X10" s="1">
         <v>2.2578999999999998</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,49 +1826,59 @@
         <v>31392</v>
       </c>
       <c r="H11" s="1">
+        <v>7.36</v>
+      </c>
+      <c r="I11" s="1">
+        <v>999</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
         <v>6.9594998119753201E-5</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
         <v>7.6913515025327069E-16</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
         <v>4.3878527735168486E-8</v>
       </c>
-      <c r="N11" s="1">
+      <c r="R11" s="1">
         <v>6.7964285714285711E-13</v>
       </c>
-      <c r="O11" s="1">
+      <c r="S11" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P11" s="1">
+      <c r="T11" s="1">
         <v>13</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="U11" s="1">
         <v>1.5</v>
       </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
         <v>0.5</v>
       </c>
-      <c r="T11" s="1">
+      <c r="X11" s="1">
         <v>2.4</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1774,49 +1901,59 @@
         <v>42216</v>
       </c>
       <c r="H12" s="1">
+        <v>7.2600000000000007</v>
+      </c>
+      <c r="I12" s="1">
+        <v>999</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
         <v>1.4107848989274241E-4</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
         <v>1.0277101096224116E-15</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
         <v>2.6956573151653464E-8</v>
       </c>
-      <c r="N12" s="1">
+      <c r="R12" s="1">
         <v>1.3923214285714283E-12</v>
       </c>
-      <c r="O12" s="1">
+      <c r="S12" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P12" s="1">
+      <c r="T12" s="1">
         <v>15</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="U12" s="1">
         <v>2.35</v>
       </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
         <v>0.6</v>
       </c>
-      <c r="T12" s="1">
+      <c r="X12" s="1">
         <v>2.6</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1839,49 +1976,59 @@
         <v>10000</v>
       </c>
       <c r="H13" s="1">
+        <v>5.92</v>
+      </c>
+      <c r="I13" s="1">
+        <v>999</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
         <v>6.04208660508526E-3</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
         <v>5.7078512075794044E-14</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <v>6.6227435028753305E-8</v>
       </c>
-      <c r="N13" s="1">
+      <c r="R13" s="1">
         <v>2.7699999999999999E-11</v>
       </c>
-      <c r="O13" s="1">
+      <c r="S13" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P13" s="1">
+      <c r="T13" s="1">
         <v>7.9</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="U13" s="1">
         <v>1.35</v>
       </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
         <v>0.1</v>
       </c>
-      <c r="T13" s="1">
+      <c r="X13" s="1">
         <v>1.6</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1904,49 +2051,59 @@
         <v>17000</v>
       </c>
       <c r="H14" s="1">
+        <v>6.2600000000000007</v>
+      </c>
+      <c r="I14" s="1">
+        <v>999</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
         <v>1.2979985676646637E-2</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
         <v>5.6851262029521553E-14</v>
       </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
         <v>7.3501812079607437E-8</v>
       </c>
-      <c r="N14" s="1">
+      <c r="R14" s="1">
         <v>5.6999999999999997E-11</v>
       </c>
-      <c r="O14" s="1">
+      <c r="S14" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P14" s="1">
+      <c r="T14" s="1">
         <v>8.1440000000000001</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="U14" s="1">
         <v>1.33</v>
       </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
         <v>1.64</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1969,49 +2126,59 @@
         <v>100000</v>
       </c>
       <c r="H15" s="1">
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="I15" s="1">
+        <v>999</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
         <v>9.4556501517864787E-3</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
         <v>3.8293049045737215E-14</v>
       </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
         <v>7.5787238167926484E-8</v>
       </c>
-      <c r="N15" s="1">
+      <c r="R15" s="1">
         <v>4.2899999999999995E-11</v>
       </c>
-      <c r="O15" s="1">
+      <c r="S15" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P15" s="1">
+      <c r="T15" s="1">
         <v>9.2959999999999994</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="U15" s="1">
         <v>1.47</v>
       </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
         <v>1.762</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2034,49 +2201,59 @@
         <v>550000</v>
       </c>
       <c r="H16" s="1">
+        <v>7.3100000000000005</v>
+      </c>
+      <c r="I16" s="1">
+        <v>999</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
         <v>4.247112453791761E-3</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
         <v>2.7431421446384039E-14</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
         <v>8.2573470082502113E-8</v>
       </c>
-      <c r="N16" s="1">
+      <c r="R16" s="1">
         <v>2.2199999999999998E-11</v>
       </c>
-      <c r="O16" s="1">
+      <c r="S16" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P16" s="1">
+      <c r="T16" s="1">
         <v>10.114000000000001</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="U16" s="1">
         <v>1.61</v>
       </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
         <v>1.885</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2099,45 +2276,55 @@
         <v>1000000</v>
       </c>
       <c r="H17" s="1">
+        <v>7.660000000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>999</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
         <v>1.1758365891864819E-3</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
         <v>3.7943944146514218E-15</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
         <v>5.4856299109269233E-8</v>
       </c>
-      <c r="N17" s="1">
+      <c r="R17" s="1">
         <v>6.0000000000000003E-12</v>
       </c>
-      <c r="O17" s="1">
+      <c r="S17" s="1">
         <v>2.616143551903963E-10</v>
       </c>
-      <c r="P17" s="1">
+      <c r="T17" s="1">
         <v>10.414999999999999</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="U17" s="1">
         <v>1.75</v>
       </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
         <v>2.0070000000000001</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>51</v>
       </c>
     </row>

--- a/OPECHEMSUMM.xlsx
+++ b/OPECHEMSUMM.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C106323D-FD66-4DB5-8BD5-5DF0EF9D7437}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7265884-F10F-4BD9-AE45-1D8436CC8C3C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPECHEMSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,9 +51,6 @@
     <t>SoilHL</t>
   </si>
   <si>
-    <t>LairEmiss</t>
-  </si>
-  <si>
     <t>UairEmiss</t>
   </si>
   <si>
@@ -88,9 +93,6 @@
     <t>CCCCC(CC)COP(=O)(OC1=CC=CC=C1)OC2=CC=CC=C2</t>
   </si>
   <si>
-    <t>TBEP</t>
-  </si>
-  <si>
     <t>CCCCOCCOP(=O)(OCCOCCCC)OCCOCCCC</t>
   </si>
   <si>
@@ -100,15 +102,9 @@
     <t>C(CCl)OP(=O)(OCCCl)OCCCl</t>
   </si>
   <si>
-    <t>TCPP</t>
-  </si>
-  <si>
     <t>CC(CCl)OP(=O)(OC(C)CCl)OC(C)CCl</t>
   </si>
   <si>
-    <t>TDCPP</t>
-  </si>
-  <si>
     <t>C(C(CCl)OP(=O)(OC(CCl)CCl)OC(CCl)CCl)Cl</t>
   </si>
   <si>
@@ -191,6 +187,18 @@
   </si>
   <si>
     <t>LogKow</t>
+  </si>
+  <si>
+    <t>bc_us</t>
+  </si>
+  <si>
+    <t>TBOEP</t>
+  </si>
+  <si>
+    <t>TCiPP</t>
+  </si>
+  <si>
+    <t>TDCiPP</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1045,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,63 +1082,63 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>362</v>
@@ -1161,7 +1169,7 @@
         <v>-1</v>
       </c>
       <c r="L2" s="1">
-        <v>6.6431498466204567E-2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -1200,12 +1208,12 @@
         <v>2.8908</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1">
         <v>398</v>
@@ -1236,7 +1244,7 @@
         <v>-1</v>
       </c>
       <c r="L3" s="1">
-        <v>0.15483404596126607</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1275,12 +1283,12 @@
         <v>3.2603</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>285</v>
@@ -1311,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.42812713302280347</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1350,12 +1358,12 @@
         <v>1.7605999999999999</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1">
         <v>328</v>
@@ -1386,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0.23955051123602947</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1425,12 +1433,12 @@
         <v>2.1833</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1">
         <v>431</v>
@@ -1461,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>2.626844818330587E-2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1500,12 +1508,12 @@
         <v>2.5510000000000002</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <v>326</v>
@@ -1536,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0.23492054294570616</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1575,12 +1583,12 @@
         <v>2.3714</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>406.9</v>
@@ -1611,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>5.0353863844170523E-5</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1650,12 +1658,12 @@
         <v>1.9078999999999999</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>485.8</v>
@@ -1686,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>1.9356100158156894E-3</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1725,12 +1733,12 @@
         <v>2.0829</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
         <v>564.69100000000003</v>
@@ -1761,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>8.4593845734627509E-8</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1800,12 +1808,12 @@
         <v>2.2578999999999998</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
         <v>643.58000000000004</v>
@@ -1836,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>6.9594998119753201E-5</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1875,12 +1883,12 @@
         <v>2.4</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1">
         <v>722.48</v>
@@ -1911,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>1.4107848989274241E-4</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1950,12 +1958,12 @@
         <v>2.6</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
         <v>257.54000000000002</v>
@@ -1986,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>6.04208660508526E-3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2025,12 +2033,12 @@
         <v>1.6</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1">
         <v>291.99</v>
@@ -2061,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>1.2979985676646637E-2</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2100,12 +2108,12 @@
         <v>1.64</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1">
         <v>326.43</v>
@@ -2136,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>9.4556501517864787E-3</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -2175,12 +2183,12 @@
         <v>1.762</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1">
         <v>360.9</v>
@@ -2211,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>4.247112453791761E-3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -2250,12 +2258,12 @@
         <v>1.885</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1">
         <v>395.32</v>
@@ -2286,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>1.1758365891864819E-3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -2325,7 +2333,7 @@
         <v>2.0070000000000001</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/OPECHEMSUMM.xlsx
+++ b/OPECHEMSUMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7265884-F10F-4BD9-AE45-1D8436CC8C3C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F008EFA0-AD64-4699-B419-23A660B88993}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,13 +1044,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.5546875" customWidth="1"/>

--- a/OPECHEMSUMM.xlsx
+++ b/OPECHEMSUMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F008EFA0-AD64-4699-B419-23A660B88993}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF4033F-EFD3-4EE6-9676-A7F64910D563}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPECHEMSUMM" sheetId="1" r:id="rId1"/>
@@ -1044,8 +1044,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,11 +1166,11 @@
         <v>6.3</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -1241,11 +1241,11 @@
         <v>3</v>
       </c>
       <c r="I3" s="1">
-        <v>6</v>
+        <v>999</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
